--- a/build/resources/main/LoginCredentials.xlsx
+++ b/build/resources/main/LoginCredentials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">emailid</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diliprathod@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abc@123</t>
   </si>
   <si>
     <t xml:space="preserve">Contextures Products</t>
@@ -398,7 +404,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,9 +433,13 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="G3" s="5"/>
     </row>
@@ -493,6 +503,8 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="diliprathod32@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Login@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="diliprathod@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Abc@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -526,55 +538,55 @@
     <row r="1" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -582,39 +594,39 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -622,15 +634,15 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
